--- a/SpringLIB/database/DATABASE.xlsx
+++ b/SpringLIB/database/DATABASE.xlsx
@@ -767,7 +767,7 @@
   <dimension ref="A1:J620"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20637,7 +20637,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21565,7 +21565,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22269,7 +22269,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22973,7 +22973,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23677,7 +23677,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24381,7 +24381,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="1" sqref="H3:H24 P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25398,7 +25398,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26102,7 +26102,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26806,7 +26806,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27507,10 +27507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27696,7 +27696,7 @@
         <v>81500</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I3" s="45" t="n">
         <v>1971</v>
@@ -27762,7 +27762,7 @@
         <v>81500</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I4" s="45" t="n">
         <v>1971</v>
@@ -27806,7 +27806,6 @@
       <c r="V4" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="W4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
@@ -27829,7 +27828,7 @@
         <v>81500</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I5" s="45" t="n">
         <v>1712</v>
@@ -27895,7 +27894,7 @@
         <v>81500</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I6" s="45" t="n">
         <v>2220</v>
@@ -27939,7 +27938,6 @@
       <c r="V6" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="W6" s="0"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
@@ -27962,7 +27960,7 @@
         <v>81500</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I7" s="45" t="n">
         <v>2218</v>
@@ -28006,7 +28004,6 @@
       <c r="V7" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="W7" s="0"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="54" t="s">
@@ -28029,7 +28026,7 @@
         <v>79500</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I8" s="45" t="n">
         <v>1834</v>
@@ -28069,7 +28066,6 @@
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
@@ -28092,7 +28088,7 @@
         <v>79500</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I9" s="45" t="n">
         <v>1906</v>
@@ -28132,7 +28128,6 @@
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
@@ -28154,8 +28149,8 @@
       <c r="G10" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H10" s="35" t="n">
-        <v>7.85</v>
+      <c r="H10" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I10" s="45" t="n">
         <v>2103</v>
@@ -28199,7 +28194,6 @@
       <c r="V10" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="W10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
@@ -28222,7 +28216,7 @@
         <v>79500</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I11" s="45" t="n">
         <v>2328</v>
@@ -28262,7 +28256,6 @@
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="54" t="s">
@@ -28284,8 +28277,8 @@
       <c r="G12" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H12" s="35" t="n">
-        <v>7.85</v>
+      <c r="H12" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I12" s="45" t="n">
         <v>1781</v>
@@ -28346,8 +28339,8 @@
       <c r="G13" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H13" s="35" t="n">
-        <v>7.85</v>
+      <c r="H13" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I13" s="45" t="n">
         <v>1900</v>
@@ -28409,7 +28402,7 @@
         <v>79500</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I14" s="45" t="n">
         <v>2125</v>
@@ -28471,7 +28464,7 @@
         <v>79500</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I15" s="45" t="n">
         <v>2270</v>
@@ -28532,8 +28525,8 @@
       <c r="G16" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H16" s="35" t="n">
-        <v>7.85</v>
+      <c r="H16" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I16" s="45" t="n">
         <v>1781</v>
@@ -28594,8 +28587,8 @@
       <c r="G17" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H17" s="35" t="n">
-        <v>7.85</v>
+      <c r="H17" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I17" s="45" t="n">
         <v>1900</v>
@@ -28639,7 +28632,6 @@
       <c r="V17" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="W17" s="0"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="59" t="s">
@@ -28662,7 +28654,7 @@
         <v>79500</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I18" s="45" t="n">
         <v>2125</v>
@@ -28706,7 +28698,6 @@
       <c r="V18" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="W18" s="0"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="59" t="s">
@@ -28729,7 +28720,7 @@
         <v>79500</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I19" s="45" t="n">
         <v>2270</v>
@@ -28773,7 +28764,6 @@
       <c r="V19" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="W19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="51" t="s">
@@ -28798,7 +28788,7 @@
         <v>81500</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I20" s="45" t="n">
         <v>2220</v>
@@ -28866,7 +28856,7 @@
         <v>81500</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I21" s="45" t="n">
         <v>2218</v>
@@ -28934,7 +28924,7 @@
         <v>79500</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>7.85</v>
+        <v>7850</v>
       </c>
       <c r="I22" s="45" t="n">
         <v>1834</v>
@@ -28997,8 +28987,8 @@
       <c r="G23" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H23" s="35" t="n">
-        <v>7.85</v>
+      <c r="H23" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I23" s="45" t="n">
         <v>1781</v>
@@ -29061,8 +29051,8 @@
       <c r="G24" s="35" t="n">
         <v>79500</v>
       </c>
-      <c r="H24" s="35" t="n">
-        <v>7.85</v>
+      <c r="H24" s="1" t="n">
+        <v>7850</v>
       </c>
       <c r="I24" s="45" t="n">
         <v>1781</v>
@@ -29122,7 +29112,7 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31567,7 +31557,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32098,7 +32088,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="H3:H24 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32283,7 +32273,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="1" sqref="H3:H24 L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35769,7 +35759,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38201,7 +38191,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39577,7 +39567,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42009,7 +41999,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R13" activeCellId="0" sqref="R13"/>
+      <selection pane="topLeft" activeCell="R13" activeCellId="1" sqref="H3:H24 R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43236,7 +43226,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44167,7 +44157,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H3:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
